--- a/Clean data sheets/Female fecundity.xlsx
+++ b/Clean data sheets/Female fecundity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3ADA14F-F4E4-7242-8A54-72248B613655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4701758A-1959-2846-BE4E-96C18E699963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1600" windowWidth="25040" windowHeight="13740" xr2:uid="{B81E2ED9-965E-3445-B135-D5EF0A0056D0}"/>
+    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{B81E2ED9-965E-3445-B135-D5EF0A0056D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Acidic</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Week 4</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821366F4-9E55-8842-8B0E-DA9A19C7D450}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>26</v>
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>96</v>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>90</v>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>103</v>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>39</v>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>135</v>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>31</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>41</v>
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>23</v>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>66</v>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>75</v>
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>99</v>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>109</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>256</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>152</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>77</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>225</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>223</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>158</v>
@@ -988,10 +988,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>223</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>178</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>165</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>215</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>164</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>201</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>214</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>185</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>389</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>271</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>395</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>197</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>237</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>382</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>299</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>323</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>425</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>300</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>223</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>558</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C84">
         <v>388</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C85">
         <v>523</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>260</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>265</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>240</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>412</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C102">
         <v>300</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>399</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>293</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>319</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>454</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C107">
         <v>469</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C108">
         <v>397</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>382</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>323</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>235</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C124">
         <v>253</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C125">
         <v>222</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C126">
         <v>246</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C127">
         <v>304</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>419</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C129">
         <v>307</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C130">
         <v>156</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C131">
         <v>101</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>247</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C133">
         <v>305</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C134">
         <v>63</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C135">
         <v>293</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C136">
         <v>142</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C148">
         <v>287</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C149">
         <v>290</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C150">
         <v>36</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>393</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C152">
         <v>211</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C153">
         <v>217</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>186</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C155">
         <v>416</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C156">
         <v>264</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>323</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C158">
         <v>186</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C159">
         <v>358</v>
